--- a/Documentação.xlsx
+++ b/Documentação.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pós graduação\TCC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F04F5C68-4C1A-4F53-A62D-B289CC09A346}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C862EECF-8B52-4F2A-A1BE-B33EA70E9B63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{9178F7FB-0FD4-47BF-85AE-703C20792B56}"/>
+    <workbookView xWindow="-20610" yWindow="-1020" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{9178F7FB-0FD4-47BF-85AE-703C20792B56}"/>
   </bookViews>
   <sheets>
     <sheet name="Visuais" sheetId="2" r:id="rId1"/>
     <sheet name="Medidas" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Medidas!$A$1:$C$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Visuais!$A$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Medidas!$A$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Visuais!$A$1:$F$62</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="121">
   <si>
     <t>Tipo</t>
   </si>
@@ -82,9 +82,6 @@
     <t>País</t>
   </si>
   <si>
-    <t>dim- edicoes</t>
-  </si>
-  <si>
     <t>Tipo do campo</t>
   </si>
   <si>
@@ -130,9 +127,6 @@
     <t>Mapa</t>
   </si>
   <si>
-    <t>dim-edições</t>
-  </si>
-  <si>
     <t>Edições por continente e país</t>
   </si>
   <si>
@@ -157,38 +151,6 @@
     <t>Seleções</t>
   </si>
   <si>
-    <r>
-      <t>COUNTROWS</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF001080"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>'dim-edicoes'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
     <t>Cálculo</t>
   </si>
   <si>
@@ -198,541 +160,13 @@
     <t>Gols</t>
   </si>
   <si>
-    <r>
-      <t>DIVIDE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF68349C"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>[Gols]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF68349C"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>[Partidas]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF09885A"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
     <t>Média de público</t>
   </si>
   <si>
-    <r>
-      <t>DIVIDE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF3165BB"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>sum</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF001080"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>'fat-partidas'[Público]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">), </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF68349C"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>[Partidas]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF09885A"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>COUNT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF001080"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>'fat-partidas'[ID partida]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>COUNT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF001080"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>'dim-equipes'[Seleção]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
     <t>Título tabela</t>
   </si>
   <si>
-    <r>
-      <t>SELECTEDVALUE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF001080"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>'dim-edicoes'[País]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFA31515"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"Todos as edições"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>COUNT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF001080"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>'dim-vencedores'[Primeiro lugar]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF3165BB"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>YEAR</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF001080"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>'dim-calendario'[Data]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>FORMAT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF3165BB"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>WEEKDAY</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF001080"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>'dim-calendario'[Data]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">), </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFA31515"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"dddd"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
     <t>Dia da semana</t>
-  </si>
-  <si>
-    <r>
-      <t>IF</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF001080"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>'dim-calendario'[Ordem]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> = </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF09885A"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> || </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF001080"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>'dim-calendario'[Ordem]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> = </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF09885A"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFA31515"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"Não"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFA31515"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"Sim"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>)</t>
-    </r>
   </si>
   <si>
     <t>SWITCH(
@@ -806,198 +240,944 @@
     <t>Árbitro</t>
   </si>
   <si>
+    <t>Top 3 seleções com mais vitórias</t>
+  </si>
+  <si>
+    <t>Treemap</t>
+  </si>
+  <si>
+    <t>Jogos vencidos</t>
+  </si>
+  <si>
+    <t>COUNT('fat-partidas'[Vencedor])</t>
+  </si>
+  <si>
+    <t>dim-equipes</t>
+  </si>
+  <si>
+    <t>Seleção</t>
+  </si>
+  <si>
+    <t>Pizza</t>
+  </si>
+  <si>
+    <t>Matriz</t>
+  </si>
+  <si>
+    <t>Cidade</t>
+  </si>
+  <si>
+    <t>Vitórias por seleção</t>
+  </si>
+  <si>
+    <t>WorldCloud</t>
+  </si>
+  <si>
+    <t>Média de gols por etapa</t>
+  </si>
+  <si>
+    <t>Colunas clusterizadas</t>
+  </si>
+  <si>
+    <t>Jogador com mais partidas jogadas</t>
+  </si>
+  <si>
+    <t>Cartão múltiplo</t>
+  </si>
+  <si>
+    <t>Jogador</t>
+  </si>
+  <si>
+    <t>dim-jogadores</t>
+  </si>
+  <si>
+    <t>dim-edicoes</t>
+  </si>
+  <si>
+    <t>Público por cidade e estádio</t>
+  </si>
+  <si>
+    <t>Descrição</t>
+  </si>
+  <si>
+    <t>Contagem das edições da copa do mundo entre 1930 e 2014</t>
+  </si>
+  <si>
+    <t>Soma dos gols</t>
+  </si>
+  <si>
+    <t>Média de gols por partida</t>
+  </si>
+  <si>
+    <t>Média de público por partida</t>
+  </si>
+  <si>
+    <t>Contagem de partidas realizadas</t>
+  </si>
+  <si>
+    <t>Contagem de seleções participantes</t>
+  </si>
+  <si>
+    <t>Título dinâmico para a tabela da página Detalhes, considerando o país selecionado</t>
+  </si>
+  <si>
+    <t>Contagem de títulos por seleção</t>
+  </si>
+  <si>
+    <t>Verificação, em uma partida, do resultado, considerando as possibilidades de vitória do time da casa, vitória do time convidado ou empate</t>
+  </si>
+  <si>
+    <t>Ano de realização da edição</t>
+  </si>
+  <si>
+    <t>Dia da semana em que foi realizada a partida</t>
+  </si>
+  <si>
+    <t>Verificação se a partida ocorreu em dias úteis, considerando sábado e domingo como dias não úteis</t>
+  </si>
+  <si>
+    <t>Coluna criada para ordenação dos dias da semana</t>
+  </si>
+  <si>
+    <t>Contagem de jogos vencidos</t>
+  </si>
+  <si>
+    <r>
+      <t>COUNTROWS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF001080"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'dim-edicoes'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>DIVIDE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF68349C"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[Gols]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF68349C"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[Partidas]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF09885A"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>DIVIDE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3165BB"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sum</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF001080"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'fat-partidas'[Público]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">), </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF68349C"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[Partidas]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF09885A"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>COUNT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF001080"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'fat-partidas'[ID partida]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>COUNT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF001080"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'dim-equipes'[Seleção]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>SELECTEDVALUE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF001080"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'dim-edicoes'[País]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Todos as edições"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>COUNT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF001080"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'dim-vencedores'[Primeiro lugar]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">Vencedor = </t>
     </r>
     <r>
       <rPr>
-        <sz val="9"/>
+        <sz val="11"/>
         <color rgb="FF3165BB"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
       <t>IF</t>
     </r>
     <r>
       <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
       <t>(</t>
     </r>
     <r>
       <rPr>
-        <sz val="9"/>
+        <sz val="11"/>
         <color rgb="FF001080"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
       <t>'fat-partidas'[Gols do time da casa]</t>
     </r>
     <r>
       <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> &gt; </t>
     </r>
     <r>
       <rPr>
-        <sz val="9"/>
+        <sz val="11"/>
         <color rgb="FF001080"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
       <t>'fat-partidas'[Gols do time visitante]</t>
     </r>
     <r>
       <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
     <r>
       <rPr>
-        <sz val="9"/>
+        <sz val="11"/>
         <color rgb="FF001080"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
       <t>'fat-partidas'[Time da casa]</t>
     </r>
     <r>
       <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
       <t>,</t>
     </r>
     <r>
       <rPr>
-        <sz val="9"/>
+        <sz val="11"/>
         <color rgb="FF3165BB"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
       <t>IF</t>
     </r>
     <r>
       <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
       <t>(</t>
     </r>
     <r>
       <rPr>
-        <sz val="9"/>
+        <sz val="11"/>
         <color rgb="FF001080"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
       <t>'fat-partidas'[Gols do time da casa]</t>
     </r>
     <r>
       <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> &lt; </t>
     </r>
     <r>
       <rPr>
-        <sz val="9"/>
+        <sz val="11"/>
         <color rgb="FF001080"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
       <t>'fat-partidas'[Gols do time visitante]</t>
     </r>
     <r>
       <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
     <r>
       <rPr>
-        <sz val="9"/>
+        <sz val="11"/>
         <color rgb="FF001080"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
       <t>'fat-partidas'[Time visitante]</t>
     </r>
     <r>
       <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
     <r>
       <rPr>
-        <sz val="9"/>
+        <sz val="11"/>
         <color rgb="FFA31515"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
       <t>"EMPATE"</t>
     </r>
     <r>
       <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
       <t>))</t>
     </r>
   </si>
   <si>
-    <t>Top 3 seleções com mais vitórias</t>
-  </si>
-  <si>
-    <t>Treemap</t>
-  </si>
-  <si>
-    <t>Jogos vencidos</t>
-  </si>
-  <si>
-    <t>COUNT('fat-partidas'[Vencedor])</t>
-  </si>
-  <si>
-    <t>dim-equipes</t>
-  </si>
-  <si>
-    <t>Seleção</t>
-  </si>
-  <si>
-    <t>Pizza</t>
-  </si>
-  <si>
-    <t>Matriz</t>
-  </si>
-  <si>
-    <t>Cidade</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3165BB"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>YEAR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF001080"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'dim-calendario'[Data]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>FORMAT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3165BB"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>WEEKDAY</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF001080"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'dim-calendario'[Data]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">), </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"dddd"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>IF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF001080"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'dim-calendario'[Ordem]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF09885A"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> || </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF001080"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'dim-calendario'[Ordem]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF09885A"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Não"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Sim"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>IF ( CONTAINSSTRING('fat-partidas'[Etapa], "Group"), "Groups", 'fat-partidas'[Etapa])</t>
+  </si>
+  <si>
+    <t>Etapa consolidada</t>
+  </si>
+  <si>
+    <t>Consolidar todas as etapas de grupo em uma só categoria</t>
+  </si>
+  <si>
+    <t>Gols do time visitante</t>
+  </si>
+  <si>
+    <t>Gols do time da casa</t>
+  </si>
+  <si>
+    <t>Ordem etapa</t>
+  </si>
+  <si>
+    <t>Table.AddColumn(#"Texto Extraído Antes do Delimitador", "Ordem etapa", each if Text.Contains([Etapa], "Group") then 1 else if Text.Contains([Etapa], "First") then 1 else if Text.Contains([Etapa], "Preliminary") then 2 else if Text.Contains([Etapa], "16") then 2 else if [Etapa] = "Quarter-finals" then 3 else if [Etapa] = "Semi-finals" then 4 else if Text.Contains([Etapa], "place") then 5 else if [Etapa] = "Final" then 6 else 100)</t>
+  </si>
+  <si>
+    <t>Coluna criada para ordenação das etapas (criada no Power Query)</t>
+  </si>
+  <si>
+    <t>Linhas</t>
+  </si>
+  <si>
+    <t>Gols do time da casa x time visitante por etapa</t>
+  </si>
+  <si>
+    <t>Partidas realizadas x seleções por ano</t>
+  </si>
+  <si>
+    <t>Dispersão</t>
   </si>
 </sst>
 </file>
@@ -1013,40 +1193,46 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Consolas"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <color rgb="FF3165BB"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF3165BB"/>
-      <name val="Consolas"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
       <color rgb="FF001080"/>
-      <name val="Consolas"/>
-      <family val="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
       <color rgb="FF68349C"/>
-      <name val="Consolas"/>
-      <family val="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
       <color rgb="FF09885A"/>
-      <name val="Consolas"/>
-      <family val="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
       <color rgb="FFA31515"/>
-      <name val="Consolas"/>
-      <family val="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1069,18 +1255,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1397,16 +1589,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DEA146C-CD27-4025-8E16-2EAC7A9B7777}">
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1" sqref="A1:D1048576"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.28515625" bestFit="1" customWidth="1"/>
@@ -1427,7 +1619,7 @@
         <v>10</v>
       </c>
       <c r="E1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
@@ -1470,7 +1662,7 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1478,19 +1670,19 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
         <v>16</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
         <v>17</v>
       </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>18</v>
-      </c>
-      <c r="F4" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1498,19 +1690,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
         <v>17</v>
       </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>18</v>
-      </c>
-      <c r="F5" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1518,19 +1710,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" t="s">
         <v>17</v>
       </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>18</v>
-      </c>
-      <c r="F6" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1538,10 +1730,10 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>13</v>
@@ -1550,7 +1742,7 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1558,19 +1750,19 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="E8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" t="s">
         <v>18</v>
-      </c>
-      <c r="F8" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1578,19 +1770,19 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" t="s">
         <v>31</v>
-      </c>
-      <c r="C9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1598,10 +1790,10 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D10" t="s">
         <v>13</v>
@@ -1610,7 +1802,7 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>30</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1618,19 +1810,19 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" t="s">
         <v>18</v>
-      </c>
-      <c r="F11" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1638,10 +1830,10 @@
         <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D12" t="s">
         <v>7</v>
@@ -1658,13 +1850,13 @@
         <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E13" t="s">
         <v>1</v>
@@ -1678,19 +1870,19 @@
         <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" t="s">
         <v>18</v>
-      </c>
-      <c r="F14" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1698,7 +1890,7 @@
         <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
         <v>3</v>
@@ -1710,7 +1902,7 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>30</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1718,7 +1910,7 @@
         <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
         <v>3</v>
@@ -1730,7 +1922,7 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>30</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1738,19 +1930,19 @@
         <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
         <v>3</v>
       </c>
       <c r="D17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E17" t="s">
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1758,10 +1950,10 @@
         <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D18" t="s">
         <v>7</v>
@@ -1770,7 +1962,7 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>30</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1778,10 +1970,10 @@
         <v>4</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D19" t="s">
         <v>13</v>
@@ -1790,7 +1982,7 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>30</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1798,19 +1990,19 @@
         <v>4</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D20" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E20" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" t="s">
         <v>18</v>
-      </c>
-      <c r="F20" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1818,19 +2010,19 @@
         <v>4</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E21" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" t="s">
         <v>18</v>
-      </c>
-      <c r="F21" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1838,19 +2030,19 @@
         <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="C22" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="D22" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="E22" t="s">
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1858,563 +2050,776 @@
         <v>4</v>
       </c>
       <c r="B23" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="C23" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="D23" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="E23" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" t="s">
         <v>18</v>
-      </c>
-      <c r="F23" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>119</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" t="s">
-        <v>7</v>
-      </c>
-      <c r="E24" t="s">
-        <v>10</v>
-      </c>
-      <c r="F24" t="s">
-        <v>11</v>
+        <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B25" t="s">
-        <v>57</v>
+        <v>119</v>
       </c>
       <c r="C25" t="s">
-        <v>60</v>
-      </c>
-      <c r="D25" t="s">
-        <v>7</v>
-      </c>
-      <c r="E25" t="s">
-        <v>10</v>
-      </c>
-      <c r="F25" t="s">
-        <v>30</v>
+        <v>120</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B26" t="s">
-        <v>57</v>
+        <v>119</v>
       </c>
       <c r="C26" t="s">
-        <v>60</v>
-      </c>
-      <c r="D26" t="s">
-        <v>12</v>
-      </c>
-      <c r="E26" t="s">
-        <v>10</v>
-      </c>
-      <c r="F26" t="s">
-        <v>30</v>
+        <v>120</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B27" t="s">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="C27" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D27" t="s">
-        <v>61</v>
+        <v>7</v>
       </c>
       <c r="E27" t="s">
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B28" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="C28" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="D28" t="s">
-        <v>62</v>
+        <v>7</v>
       </c>
       <c r="E28" t="s">
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>28</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B29" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="C29" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="D29" t="s">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="E29" t="s">
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>28</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30" t="s">
         <v>16</v>
       </c>
-      <c r="B30" t="s">
-        <v>59</v>
-      </c>
-      <c r="C30" t="s">
-        <v>84</v>
-      </c>
       <c r="D30" t="s">
-        <v>85</v>
+        <v>49</v>
       </c>
       <c r="E30" t="s">
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>65</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31" t="s">
+        <v>46</v>
+      </c>
+      <c r="C31" t="s">
         <v>16</v>
       </c>
-      <c r="B31" t="s">
-        <v>59</v>
-      </c>
-      <c r="C31" t="s">
-        <v>84</v>
-      </c>
       <c r="D31" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="E31" t="s">
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>65</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>15</v>
+      </c>
+      <c r="B32" t="s">
+        <v>46</v>
+      </c>
+      <c r="C32" t="s">
         <v>16</v>
       </c>
-      <c r="B32" t="s">
-        <v>59</v>
-      </c>
-      <c r="C32" t="s">
-        <v>84</v>
-      </c>
       <c r="D32" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="E32" t="s">
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>65</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B33" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="C33" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="D33" t="s">
-        <v>20</v>
+        <v>72</v>
       </c>
       <c r="E33" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B34" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="C34" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="D34" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="E34" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B35" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="C35" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="D35" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="E35" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B36" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="C36" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="D36" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E36" t="s">
+        <v>17</v>
+      </c>
+      <c r="F36" t="s">
         <v>18</v>
-      </c>
-      <c r="F36" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>82</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>71</v>
       </c>
       <c r="D37" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F37" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="B38" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
       <c r="D38" t="s">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F38" t="s">
-        <v>68</v>
+        <v>11</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="B39" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
       <c r="D39" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="E39" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="F39" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="B40" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C40" t="s">
-        <v>3</v>
+        <v>74</v>
       </c>
       <c r="D40" t="s">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F40" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="B41" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C41" t="s">
-        <v>3</v>
+        <v>76</v>
       </c>
       <c r="D41" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="E41" t="s">
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="B42" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C42" t="s">
-        <v>3</v>
+        <v>76</v>
       </c>
       <c r="D42" t="s">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F42" t="s">
-        <v>65</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="B43" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="C43" t="s">
-        <v>3</v>
+        <v>78</v>
       </c>
       <c r="D43" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="E43" t="s">
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="B44" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="C44" t="s">
-        <v>3</v>
+        <v>78</v>
       </c>
       <c r="D44" t="s">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F44" t="s">
-        <v>65</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="B45" t="s">
-        <v>69</v>
+        <v>118</v>
       </c>
       <c r="C45" t="s">
-        <v>3</v>
+        <v>117</v>
       </c>
       <c r="D45" t="s">
-        <v>42</v>
+        <v>110</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F45" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="B46" t="s">
-        <v>69</v>
+        <v>118</v>
       </c>
       <c r="C46" t="s">
-        <v>3</v>
+        <v>117</v>
       </c>
       <c r="D46" t="s">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="E46" t="s">
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="B47" t="s">
-        <v>69</v>
+        <v>118</v>
       </c>
       <c r="C47" t="s">
-        <v>3</v>
+        <v>117</v>
       </c>
       <c r="D47" t="s">
-        <v>42</v>
+        <v>112</v>
       </c>
       <c r="E47" t="s">
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="B48" t="s">
-        <v>69</v>
+        <v>7</v>
       </c>
       <c r="C48" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D48" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="E48" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>65</v>
+        <v>11</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="B49" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="C49" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D49" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E49" t="s">
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="B50" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="C50" t="s">
+        <v>8</v>
+      </c>
+      <c r="D50" t="s">
+        <v>42</v>
+      </c>
+      <c r="E50" t="s">
+        <v>1</v>
+      </c>
+      <c r="F50" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>54</v>
+      </c>
+      <c r="B51" t="s">
+        <v>57</v>
+      </c>
+      <c r="C51" t="s">
         <v>3</v>
       </c>
-      <c r="D50" t="s">
-        <v>75</v>
-      </c>
-      <c r="E50" t="s">
-        <v>10</v>
-      </c>
-      <c r="F50" t="s">
-        <v>65</v>
+      <c r="D51" t="s">
+        <v>58</v>
+      </c>
+      <c r="E51" t="s">
+        <v>10</v>
+      </c>
+      <c r="F51" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>54</v>
+      </c>
+      <c r="B52" t="s">
+        <v>57</v>
+      </c>
+      <c r="C52" t="s">
+        <v>3</v>
+      </c>
+      <c r="D52" t="s">
+        <v>59</v>
+      </c>
+      <c r="E52" t="s">
+        <v>10</v>
+      </c>
+      <c r="F52" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>54</v>
+      </c>
+      <c r="B53" t="s">
+        <v>57</v>
+      </c>
+      <c r="C53" t="s">
+        <v>3</v>
+      </c>
+      <c r="D53" t="s">
+        <v>72</v>
+      </c>
+      <c r="E53" t="s">
+        <v>10</v>
+      </c>
+      <c r="F53" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>54</v>
+      </c>
+      <c r="B54" t="s">
+        <v>57</v>
+      </c>
+      <c r="C54" t="s">
+        <v>3</v>
+      </c>
+      <c r="D54" t="s">
+        <v>52</v>
+      </c>
+      <c r="E54" t="s">
+        <v>10</v>
+      </c>
+      <c r="F54" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>57</v>
+      </c>
+      <c r="C55" t="s">
+        <v>3</v>
+      </c>
+      <c r="D55" t="s">
+        <v>60</v>
+      </c>
+      <c r="E55" t="s">
+        <v>10</v>
+      </c>
+      <c r="F55" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>57</v>
+      </c>
+      <c r="C56" t="s">
+        <v>3</v>
+      </c>
+      <c r="D56" t="s">
+        <v>61</v>
+      </c>
+      <c r="E56" t="s">
+        <v>10</v>
+      </c>
+      <c r="F56" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>54</v>
+      </c>
+      <c r="B57" t="s">
+        <v>57</v>
+      </c>
+      <c r="C57" t="s">
+        <v>3</v>
+      </c>
+      <c r="D57" t="s">
+        <v>39</v>
+      </c>
+      <c r="E57" t="s">
+        <v>10</v>
+      </c>
+      <c r="F57" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>54</v>
+      </c>
+      <c r="B58" t="s">
+        <v>57</v>
+      </c>
+      <c r="C58" t="s">
+        <v>3</v>
+      </c>
+      <c r="D58" t="s">
+        <v>62</v>
+      </c>
+      <c r="E58" t="s">
+        <v>10</v>
+      </c>
+      <c r="F58" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>54</v>
+      </c>
+      <c r="B59" t="s">
+        <v>57</v>
+      </c>
+      <c r="C59" t="s">
+        <v>3</v>
+      </c>
+      <c r="D59" t="s">
+        <v>39</v>
+      </c>
+      <c r="E59" t="s">
+        <v>10</v>
+      </c>
+      <c r="F59" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>54</v>
+      </c>
+      <c r="B60" t="s">
+        <v>57</v>
+      </c>
+      <c r="C60" t="s">
+        <v>3</v>
+      </c>
+      <c r="D60" t="s">
+        <v>33</v>
+      </c>
+      <c r="E60" t="s">
+        <v>1</v>
+      </c>
+      <c r="F60" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>54</v>
+      </c>
+      <c r="B61" t="s">
+        <v>57</v>
+      </c>
+      <c r="C61" t="s">
+        <v>3</v>
+      </c>
+      <c r="D61" t="s">
+        <v>47</v>
+      </c>
+      <c r="E61" t="s">
+        <v>10</v>
+      </c>
+      <c r="F61" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>54</v>
+      </c>
+      <c r="B62" t="s">
+        <v>57</v>
+      </c>
+      <c r="C62" t="s">
+        <v>3</v>
+      </c>
+      <c r="D62" t="s">
+        <v>63</v>
+      </c>
+      <c r="E62" t="s">
+        <v>10</v>
+      </c>
+      <c r="F62" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F1" xr:uid="{9DEA146C-CD27-4025-8E16-2EAC7A9B7777}"/>
+  <autoFilter ref="A1:F62" xr:uid="{9DEA146C-CD27-4025-8E16-2EAC7A9B7777}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2422,187 +2827,262 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C90ABE7-D94D-417F-8220-BC12A82D2F44}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="91.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="126.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="91.85546875" style="6" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="B13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D16" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="48" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" t="s">
+    <row r="17" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="24" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="135" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>79</v>
-      </c>
-      <c r="B15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>80</v>
+      <c r="C17" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C1" xr:uid="{9DEA146C-CD27-4025-8E16-2EAC7A9B7777}"/>
+  <autoFilter ref="A1:D1" xr:uid="{9DEA146C-CD27-4025-8E16-2EAC7A9B7777}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Documentação.xlsx
+++ b/Documentação.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pós graduação\TCC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C862EECF-8B52-4F2A-A1BE-B33EA70E9B63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0037460-5A5C-45CA-8647-0B9C5584E8AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20610" yWindow="-1020" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{9178F7FB-0FD4-47BF-85AE-703C20792B56}"/>
+    <workbookView xWindow="-20610" yWindow="-1020" windowWidth="20730" windowHeight="11310" xr2:uid="{9178F7FB-0FD4-47BF-85AE-703C20792B56}"/>
   </bookViews>
   <sheets>
     <sheet name="Visuais" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="121">
   <si>
     <t>Tipo</t>
   </si>
@@ -1255,7 +1255,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1264,15 +1264,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1591,9 +1588,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DEA146C-CD27-4025-8E16-2EAC7A9B7777}">
   <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D54" sqref="D54"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2075,6 +2072,15 @@
       <c r="C24" t="s">
         <v>120</v>
       </c>
+      <c r="D24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -2086,6 +2092,15 @@
       <c r="C25" t="s">
         <v>120</v>
       </c>
+      <c r="D25" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -2096,6 +2111,15 @@
       </c>
       <c r="C26" t="s">
         <v>120</v>
+      </c>
+      <c r="D26" t="s">
+        <v>36</v>
+      </c>
+      <c r="E26" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -2829,18 +2853,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C90ABE7-D94D-417F-8220-BC12A82D2F44}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="126.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="91.85546875" style="6" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="1" width="17.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="23.28515625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="37.85546875" style="5" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -2853,11 +2877,11 @@
       <c r="C1" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>15</v>
       </c>
@@ -2871,7 +2895,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>39</v>
       </c>
@@ -2881,7 +2905,7 @@
       <c r="C3" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2895,7 +2919,7 @@
       <c r="C4" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>67</v>
       </c>
     </row>
@@ -2913,7 +2937,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>40</v>
       </c>
@@ -2941,7 +2965,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>36</v>
       </c>
@@ -2955,7 +2979,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>41</v>
       </c>
@@ -2969,7 +2993,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>26</v>
       </c>
@@ -2983,7 +3007,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>33</v>
       </c>
@@ -2993,11 +3017,11 @@
       <c r="C11" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="3" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>7</v>
       </c>
@@ -3007,11 +3031,11 @@
       <c r="C12" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="3" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>42</v>
       </c>
@@ -3025,7 +3049,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>32</v>
       </c>
@@ -3039,7 +3063,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>110</v>
       </c>
@@ -3063,11 +3087,11 @@
       <c r="C16" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="180" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>114</v>
       </c>
@@ -3077,7 +3101,7 @@
       <c r="C17" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="5" t="s">
         <v>115</v>
       </c>
     </row>
